--- a/PAINEL EC 136-2025.xlsx
+++ b/PAINEL EC 136-2025.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D561E91F-254C-4BBB-916A-47CF2AD9AEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BC2B19-A994-4ACB-8A31-1FEEBDB83325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8AF0FD94-2F3F-4E9E-A5F9-48853D2BE48E}"/>
   </bookViews>
   <sheets>
     <sheet name="PLANILHA PEC 136" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PLANILHA PEC 136'!$N$9:$N$190</definedName>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="200">
   <si>
     <t>SITUAÇÃO DOS ENTES DEVEDEROS NO CONTEXTO DA EC 136/2025</t>
   </si>
@@ -650,7 +649,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -703,13 +702,8 @@
       <color indexed="8"/>
       <name val="Nunito"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Nunito"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -734,14 +728,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -769,19 +757,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -789,7 +764,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -843,12 +818,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1841,8 +1810,8 @@
   </sheetPr>
   <dimension ref="A4:Q442"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I168" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O181" sqref="O181"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100:XFD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1868,21 +1837,21 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
+      <c r="B4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K6" s="5" t="s">
@@ -10712,930 +10681,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E6D7CC-6D91-4664-A8A3-3CF35A093F5D}">
-  <dimension ref="A1:A181"/>
-  <sheetViews>
-    <sheetView topLeftCell="A129" workbookViewId="0">
-      <selection sqref="A1:A181"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="19" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="19" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="19" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="19" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="19" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="19" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="20" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="19" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="20" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="20" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="20" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="19" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A165" s="19" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A168" s="20" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A169" s="19" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A172" s="20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A174" s="20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="19" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A176" s="20" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="19" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A178" s="20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A179" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A180" s="20" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A181" s="19" t="s">
-        <v>196</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A181">
-    <sortCondition ref="A1:A181"/>
-  </sortState>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>